--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\ilmakalu-reborn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CBD6D0-F567-4DBD-B660-9C31335FC61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3EA8B4-7125-41CF-AC14-7CF41DD9DFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DCDF6429-BDF5-4C2C-BF59-6BAF0A8A454E}"/>
+    <workbookView xWindow="47580" yWindow="1428" windowWidth="19740" windowHeight="13620" xr2:uid="{DCDF6429-BDF5-4C2C-BF59-6BAF0A8A454E}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -483,6 +483,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -801,16 +804,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207918AA-CFAA-4EAA-A3FB-09EB349F5534}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.06640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.53125" style="1" customWidth="1"/>
     <col min="6" max="6" width="68.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.06640625" style="1"/>
@@ -854,19 +857,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1058,13 +1061,15 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>65</v>
       </c>
     </row>
